--- a/Datos/Anuario2024/160601_Asociacionismo.xlsx
+++ b/Datos/Anuario2024/160601_Asociacionismo.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="49" r:id="rId1"/>
+    <sheet name="1" sheetId="47" r:id="rId2"/>
+    <sheet name="2" sheetId="48" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_1">#REF!</definedName>
@@ -70,62 +76,201 @@
     <definedName name="b">#REF!</definedName>
     <definedName name="m">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t>2. l'Eixample</t>
+  </si>
+  <si>
+    <t>3. Extramurs</t>
+  </si>
+  <si>
+    <t>4. Campanar</t>
+  </si>
+  <si>
+    <t>5. la Saïdia</t>
+  </si>
+  <si>
+    <t>6. el Pla del Real</t>
+  </si>
+  <si>
+    <t>7. l'Olivereta</t>
+  </si>
+  <si>
+    <t>8. Patraix</t>
+  </si>
+  <si>
+    <t>9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>Otras</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Asistencia Social</t>
+  </si>
+  <si>
+    <t>Asociaciones de Madres y Padres de Alumnos</t>
+  </si>
+  <si>
+    <t>Jubilados y Mayores</t>
+  </si>
+  <si>
+    <t>Juveniles y Estudiantes</t>
+  </si>
+  <si>
+    <t>Vecinales</t>
+  </si>
+  <si>
+    <t>Usuarios y Consumidores</t>
+  </si>
+  <si>
+    <t>Otras Participación Social</t>
+  </si>
+  <si>
+    <t>Culturales</t>
+  </si>
+  <si>
+    <t>Fallas</t>
+  </si>
+  <si>
+    <t>Otras Fiestas y Recreativas</t>
+  </si>
+  <si>
+    <t>Deportivas</t>
+  </si>
+  <si>
+    <t>Ecologistas y Medio Ambiente</t>
+  </si>
+  <si>
+    <t>Profesionales y Económicas</t>
+  </si>
+  <si>
+    <t>Científicas y de Investigación</t>
+  </si>
+  <si>
+    <t>Nota: El total de asociaciones no coincide con la suma por tipo ya que una asociación puede dedicarse a dos o más tipos de actividad.</t>
+  </si>
+  <si>
+    <t>Fuente: Registro Autonómico de Asociaciones de la Comunidad Valenciana.</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>ASOCIACIONISMO</t>
+  </si>
+  <si>
+    <t>1. Asociaciones según tipo. 2023</t>
+  </si>
+  <si>
+    <t>2. Asociaciones según distrito y tipo. 2023</t>
+  </si>
+  <si>
+    <t>Voluntariado</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -160,118 +305,59 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -472,1154 +558,1006 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="inlineStr">
-        <is>
-          <t>ASOCIACIONISMO</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="39.140625" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="inlineStr">
-        <is>
-          <t>1. Asociaciones según tipo. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="14" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="n">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13">
         <v>5366</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="15" t="inlineStr">
-        <is>
-          <t>Asistencia Social</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="n">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11">
         <v>659</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="16" t="inlineStr">
-        <is>
-          <t>Asociaciones de Madres y Padres de Alumnos</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="n">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8">
         <v>238</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="15" t="inlineStr">
-        <is>
-          <t>Jubilados y Mayores</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="n">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="11">
         <v>63</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="16" t="inlineStr">
-        <is>
-          <t>Juveniles y Estudiantes</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="n">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8">
         <v>178</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="15" t="inlineStr">
-        <is>
-          <t>Vecinales</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="n">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="11">
         <v>179</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="16" t="inlineStr">
-        <is>
-          <t>Usuarios y Consumidores</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="n">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8">
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="15" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="B11" s="11" t="n">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="16" t="inlineStr">
-        <is>
-          <t>Otras Participación Social</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="n">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8">
         <v>350</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="15" t="inlineStr">
-        <is>
-          <t>Voluntariado</t>
-        </is>
-      </c>
-      <c r="B13" s="11" t="n">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="16" t="inlineStr">
-        <is>
-          <t>Culturales</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="n">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8">
         <v>1399</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="15" t="inlineStr">
-        <is>
-          <t>Fallas</t>
-        </is>
-      </c>
-      <c r="B15" s="11" t="n">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="11">
         <v>307</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="16" t="inlineStr">
-        <is>
-          <t>Otras Fiestas y Recreativas</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="n">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="8">
         <v>391</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="15" t="inlineStr">
-        <is>
-          <t>Deportivas</t>
-        </is>
-      </c>
-      <c r="B17" s="11" t="n">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="11">
         <v>295</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="16" t="inlineStr">
-        <is>
-          <t>Ecologistas y Medio Ambiente</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="n">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8">
         <v>227</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="15" t="inlineStr">
-        <is>
-          <t>Profesionales y Económicas</t>
-        </is>
-      </c>
-      <c r="B19" s="11" t="n">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="11">
         <v>390</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="16" t="inlineStr">
-        <is>
-          <t>Científicas y de Investigación</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="n">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8">
         <v>161</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="15" t="inlineStr">
-        <is>
-          <t>Otras</t>
-        </is>
-      </c>
-      <c r="B21" s="11" t="n">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="11">
         <v>649</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="16" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
-      </c>
-      <c r="B22" s="8" t="n">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
         <v>74</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Nota: El total de asociaciones no coincide con la suma por tipo ya que una asociación puede dedicarse a dos o más tipos de actividad.</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Fuente: Registro Autonómico de Asociaciones de la Comunidad Valenciana.</t>
-        </is>
-      </c>
-      <c r="B24" s="12" t="n"/>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="18.5703125" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="6"/>
-    <col width="13.28515625" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="10"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="inlineStr">
-        <is>
-          <t>2. Asociaciones según distrito y tipo. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="7" t="n"/>
-      <c r="H1" s="7" t="n"/>
-      <c r="I1" s="7" t="n"/>
-      <c r="J1" s="7" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
-      <c r="F2" s="7" t="n"/>
-      <c r="G2" s="7" t="n"/>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="7" t="n"/>
-      <c r="J2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="45" customHeight="1">
-      <c r="A3" s="14" t="inlineStr">
-        <is>
-          <t>Distrito</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Culturales</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Asistencia Social</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Profesionales y Económicas</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Otras Fiestas y Recreativas</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>Otras Participación Social</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Deportivas</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Otras</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="n">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13">
         <v>5366</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="13">
         <v>1399</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="13">
         <v>659</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="13">
         <v>391</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="13">
         <v>390</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="13">
         <v>350</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="13">
         <v>295</v>
       </c>
-      <c r="I4" s="13" t="n">
+      <c r="I4" s="13">
         <v>2139</v>
       </c>
-      <c r="J4" s="13" t="n">
+      <c r="J4" s="13">
         <v>74</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="n">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
         <v>709</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="11">
         <v>194</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>74</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>47</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="11">
         <v>78</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>51</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="11">
         <v>18</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="11">
         <v>271</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="n">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
         <v>472</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>121</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="8">
         <v>48</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="8">
         <v>33</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8">
         <v>55</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="8">
         <v>37</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="8">
         <v>25</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="8">
         <v>177</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="n">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
         <v>471</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="11">
         <v>143</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>42</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="11">
         <v>38</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="11">
         <v>45</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="11">
         <v>32</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="11">
         <v>16</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="11">
         <v>183</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="n">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
         <v>208</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="8">
         <v>51</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="8">
         <v>30</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="8">
         <v>16</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="8">
         <v>8</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="8">
         <v>13</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="8">
         <v>15</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="8">
         <v>87</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="n">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
         <v>245</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="11">
         <v>59</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>33</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="11">
         <v>14</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="11">
         <v>10</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="11">
         <v>18</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="11">
         <v>13</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="11">
         <v>107</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="n">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8">
         <v>245</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="8">
         <v>48</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="8">
         <v>36</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="8">
         <v>11</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="8">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="8">
         <v>17</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="8">
         <v>16</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="8">
         <v>112</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="J10" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="11" t="n">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11">
         <v>248</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="11">
         <v>49</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>52</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="11">
         <v>18</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="11">
         <v>12</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="11">
         <v>16</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="11">
         <v>8</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="11">
         <v>101</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="n">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8">
         <v>284</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="8">
         <v>86</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="8">
         <v>31</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="8">
         <v>27</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="8">
         <v>18</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="8">
         <v>11</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="8">
         <v>13</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="8">
         <v>105</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="11" t="n">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11">
         <v>249</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="11">
         <v>63</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>33</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="11">
         <v>15</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="11">
         <v>11</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="11">
         <v>15</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="11">
         <v>17</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="11">
         <v>106</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="n">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8">
         <v>389</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="8">
         <v>94</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="8">
         <v>53</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="8">
         <v>18</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="8">
         <v>35</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="8">
         <v>29</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="8">
         <v>18</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="8">
         <v>167</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="11" t="n">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11">
         <v>375</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="11">
         <v>109</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>36</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>41</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="11">
         <v>22</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="11">
         <v>25</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="11">
         <v>23</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="11">
         <v>139</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="n">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8">
         <v>308</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="8">
         <v>76</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="8">
         <v>51</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="8">
         <v>17</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="8">
         <v>14</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="8">
         <v>11</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="8">
         <v>22</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="8">
         <v>127</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="11" t="n">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11">
         <v>256</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="11">
         <v>53</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="11">
         <v>28</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="11">
         <v>16</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="11">
         <v>20</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="11">
         <v>19</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="H17" s="11">
         <v>18</v>
       </c>
-      <c r="I17" s="11" t="n">
+      <c r="I17" s="11">
         <v>118</v>
       </c>
-      <c r="J17" s="11" t="n">
+      <c r="J17" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="n">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
         <v>238</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="8">
         <v>85</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="8">
         <v>28</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="8">
         <v>11</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="8">
         <v>12</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="8">
         <v>9</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="8">
         <v>19</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="8">
         <v>85</v>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="11" t="n">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11">
         <v>210</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="11">
         <v>55</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="11">
         <v>35</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="11">
         <v>6</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="11">
         <v>6</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="11">
         <v>25</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="H19" s="11">
         <v>23</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="11">
         <v>72</v>
       </c>
-      <c r="J19" s="11" t="n">
+      <c r="J19" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="n">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8">
         <v>189</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="8">
         <v>47</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="8">
         <v>34</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="8">
         <v>9</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="8">
         <v>9</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="8">
         <v>13</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20" s="8">
         <v>17</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="8">
         <v>71</v>
       </c>
-      <c r="J20" s="8" t="n">
+      <c r="J20" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="11" t="n">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11">
         <v>59</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="11">
         <v>11</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="11">
         <v>2</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="9">
         <v>20</v>
       </c>
-      <c r="F21" s="11" t="n">
+      <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="11">
         <v>3</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="9">
         <v>1</v>
       </c>
-      <c r="I21" s="11" t="n">
+      <c r="I21" s="11">
         <v>24</v>
       </c>
-      <c r="J21" s="11" t="n">
+      <c r="J21" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="10" t="n">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10">
         <v>50</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="8">
         <v>5</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="10">
         <v>4</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="8">
         <v>8</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="8">
         <v>7</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="8">
         <v>4</v>
       </c>
-      <c r="H22" s="10" t="n">
+      <c r="H22" s="10">
         <v>1</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="8">
         <v>23</v>
       </c>
-      <c r="J22" s="8" t="n">
+      <c r="J22" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="11" t="n">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11">
         <v>148</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="11">
         <v>45</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="11">
         <v>9</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E23" s="11">
         <v>25</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="11">
         <v>8</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="11">
         <v>2</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="9">
         <v>11</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="11">
         <v>58</v>
       </c>
-      <c r="J23" s="11" t="n">
+      <c r="J23" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
-      </c>
-      <c r="B24" s="10" t="n">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10">
         <v>13</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="8">
         <v>5</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="10">
         <v>0</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="8">
         <v>1</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="10">
         <v>1</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="10" t="n">
+      <c r="H24" s="10">
         <v>1</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24" s="8">
         <v>6</v>
       </c>
-      <c r="J24" s="8" t="n">
+      <c r="J24" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Nota: El total de asociaciones no coincide con la suma por tipo ya que una asociación puede dedicarse a dos o más tipos de actividad.</t>
-        </is>
-      </c>
-      <c r="B25" s="10" t="n"/>
-      <c r="C25" s="8" t="n"/>
-      <c r="D25" s="10" t="n"/>
-      <c r="E25" s="8" t="n"/>
-      <c r="F25" s="8" t="n"/>
-      <c r="G25" s="8" t="n"/>
-      <c r="H25" s="10" t="n"/>
-      <c r="I25" s="8" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Fuente: Registro Autonómico de Asociaciones de la Comunidad Valenciana.</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="n"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>